--- a/printer/templates/void.xlsx
+++ b/printer/templates/void.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.rafat\Desktop\MiniExcel\printer\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.rafat\Desktop\TemplatePrinting\printer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -13,24 +13,70 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="__Data__">Sheet1!$1:$1048576</definedName>
-    <definedName name="__Items__">Sheet1!$10:$10</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$64</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
+    <definedName name="__Items__">Sheet1!$12:$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$G$64</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$11</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
-  <si>
-    <t>التاريخ</t>
-  </si>
-  <si>
-    <t>الوقت</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+  <si>
+    <t>Configuration Sheet</t>
+  </si>
+  <si>
+    <t>Included Configs:</t>
+  </si>
+  <si>
+    <t>Data Sources:</t>
+  </si>
+  <si>
+    <t>Application to run:</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Expressions</t>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>Source Name</t>
+  </si>
+  <si>
+    <t>Filter</t>
+  </si>
+  <si>
+    <t>Sort Fields ("," Separated), ASC or DESC</t>
+  </si>
+  <si>
+    <t>Format Name</t>
+  </si>
+  <si>
+    <t>Format Def</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>company_logo1</t>
+  </si>
+  <si>
+    <t>&lt;#company_logo&gt;&lt;#if(&lt;#company_logo&gt;="";&lt;#imgdelete&gt;;)&gt;&lt;#imgsize(0;-1)&gt;</t>
   </si>
   <si>
     <t>{{Company}}</t>
@@ -42,70 +88,77 @@
     <t>{{Date}}</t>
   </si>
   <si>
+    <t>{{InvoiceType}}</t>
+  </si>
+  <si>
+    <t>{{Items.Price}}</t>
+  </si>
+  <si>
+    <t>{{Items.Count}}</t>
+  </si>
+  <si>
+    <t>{{Items.Title}}</t>
+  </si>
+  <si>
+    <t>{{BranchDesc}}</t>
+  </si>
+  <si>
+    <t>{{Cashier}}</t>
+  </si>
+  <si>
+    <t>Cahsier</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
     <t>{{InvoiceNo}}</t>
   </si>
   <si>
-    <t>{{InvoiceType}}</t>
-  </si>
-  <si>
-    <t>{{Time}}</t>
-  </si>
-  <si>
-    <t>{{Items.Count}}</t>
-  </si>
-  <si>
-    <t>{{Items.Title}}</t>
-  </si>
-  <si>
-    <t>{{TableNo}}</t>
-  </si>
-  <si>
-    <t>{{TableTitle}}</t>
-  </si>
-  <si>
-    <t>{{BranchDesc}}</t>
-  </si>
-  <si>
-    <t>كاشير: {{Cashier}}</t>
-  </si>
-  <si>
-    <t>{{ClientInfo.Value}}</t>
-  </si>
-  <si>
-    <t>{{ClientInfo.Title}}</t>
-  </si>
-  <si>
-    <t>{{Items.TotalPrice}}</t>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>{{ClientName}}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="[$-1010000]yyyy/mm/dd;@"/>
-    <numFmt numFmtId="165" formatCode="[$-1000409]h:mm\ AM/PM;@"/>
-  </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <name val="Vazir"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Hacen Tunisia"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tajawal Medium"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,12 +167,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79989013336588644"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39988402966399123"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -128,13 +199,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color theme="0" tint="-0.499984740745262"/>
+      <left style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
       </top>
-      <bottom style="hair">
-        <color theme="0" tint="-0.499984740745262"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14990691854609822"/>
       </bottom>
       <diagonal/>
     </border>
@@ -145,19 +220,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -178,95 +240,98 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="hair">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="hair">
-        <color theme="0" tint="-0.499984740745262"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -358,16 +423,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>289822</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>70376</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>354096</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>113488</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>818084</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>232302</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>33090</xdr:rowOff>
+      <xdr:rowOff>113488</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -384,14 +449,448 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1764836" y="358847"/>
-          <a:ext cx="528262" cy="534214"/>
+          <a:off x="1886202" y="113488"/>
+          <a:ext cx="773962" cy="729574"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>579904</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>474</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1552735" y="0"/>
+          <a:ext cx="1455237" cy="965889"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5586"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:round/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>48296</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466859</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="276359"/>
+          <a:ext cx="1515951" cy="685990"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7629"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>466859</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>228063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="1"/>
+          <a:ext cx="1515950" cy="228062"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>48638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1005191"/>
+          <a:ext cx="3007468" cy="226979"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4053</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2050915" y="1280809"/>
+          <a:ext cx="956553" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6876"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4054</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>490437</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1049777" y="1280809"/>
+          <a:ext cx="972766" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6876"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1280809"/>
+          <a:ext cx="1017351" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 6876"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -684,133 +1183,281 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="175" zoomScaleNormal="145" zoomScaleSheetLayoutView="175" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:D8"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="145" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.7109375" style="1" customWidth="1"/>
-    <col min="6" max="7" width="7.28515625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5703125" style="1"/>
+    <col min="1" max="1" width="6.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="3.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="5.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="8" customWidth="1"/>
+    <col min="8" max="9" width="7.28515625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="11.5703125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="H3" s="3"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="3" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14"/>
+    <row r="1" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+    </row>
+    <row r="2" spans="1:10" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+    </row>
+    <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="J5" s="10"/>
+    </row>
+    <row r="6" spans="1:10" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="3.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="6"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="J8" s="10"/>
+    </row>
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="14"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
+  <mergeCells count="12">
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A10:C10"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="119" fitToHeight="0" orientation="portrait" horizontalDpi="120" verticalDpi="144" r:id="rId1"/>
+  <pageSetup paperSize="120" scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="120" verticalDpi="144" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" style="3" customWidth="1"/>
+    <col min="5" max="7" width="1.7109375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="3" customWidth="1"/>
+    <col min="10" max="12" width="1.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.5703125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="51.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="2"/>
+    </row>
+    <row r="9" spans="1:14" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I10" s="5"/>
+      <c r="M10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/printer/templates/void.xlsx
+++ b/printer/templates/void.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.rafat\Desktop\TemplatePrinting\printer\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m.rafat\source\- back\template-printing-api\printer\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="25935" windowHeight="20985"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Configuration Sheet</t>
   </si>
@@ -115,10 +115,13 @@
     <t>{{InvoiceNo}}</t>
   </si>
   <si>
-    <t>Client</t>
-  </si>
-  <si>
-    <t>{{ClientName}}</t>
+    <t>VOID</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>{{SectionName}}</t>
   </si>
 </sst>
 </file>
@@ -313,25 +316,25 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" vertical="center" shrinkToFit="1" readingOrder="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -421,44 +424,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>354096</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>113488</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>232302</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>113488</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1886202" y="113488"/>
-          <a:ext cx="773962" cy="729574"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
@@ -710,7 +675,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>4053</xdr:colOff>
+      <xdr:colOff>37171</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -727,8 +692,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2050915" y="1280809"/>
-          <a:ext cx="956553" cy="571500"/>
+          <a:off x="1942171" y="1277744"/>
+          <a:ext cx="924622" cy="571500"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1185,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="145" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="205" zoomScaleNormal="145" zoomScaleSheetLayoutView="205" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12:G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1195,7 +1160,7 @@
     <col min="2" max="2" width="5.7109375" style="8" customWidth="1"/>
     <col min="3" max="3" width="3.28515625" style="8" customWidth="1"/>
     <col min="4" max="4" width="7.28515625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" style="8" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" style="8" customWidth="1"/>
     <col min="6" max="6" width="5.7109375" style="8" customWidth="1"/>
     <col min="7" max="7" width="8.7109375" style="8" customWidth="1"/>
     <col min="8" max="9" width="7.28515625" style="8" customWidth="1"/>
@@ -1229,9 +1194,11 @@
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
+      <c r="E3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
     </row>
     <row r="4" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
@@ -1240,9 +1207,9 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
       <c r="J4" s="10"/>
     </row>
     <row r="5" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1290,34 +1257,34 @@
       <c r="J8" s="10"/>
     </row>
     <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22" t="s">
+      <c r="A9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22" t="s">
+      <c r="E9" s="17"/>
+      <c r="F9" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="G9" s="22"/>
+      <c r="G9" s="17"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="17" t="s">
+      <c r="A10" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="13"/>
@@ -1335,16 +1302,16 @@
       <c r="B12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
     <mergeCell ref="C12:G12"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A7:G7"/>
@@ -1357,6 +1324,7 @@
     <mergeCell ref="F10:G10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="A10:C10"/>
+    <mergeCell ref="E3:G4"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="120" scale="81" fitToHeight="0" orientation="portrait" horizontalDpi="120" verticalDpi="144" r:id="rId1"/>
